--- a/Data/Metadata_final.xlsx
+++ b/Data/Metadata_final.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lolap\OneDrive\Documents\Cours\Master\MA2\Gaz Dissous\Code\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69F38E57-849B-4616-B7B3-30FA4B5068BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{681C72AC-3992-48E5-AF04-10B732EB0F67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9510" yWindow="0" windowWidth="9780" windowHeight="10170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -638,8 +638,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="61" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F40" sqref="F40"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="V52" sqref="V52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/Data/Metadata_final.xlsx
+++ b/Data/Metadata_final.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lolap\OneDrive\Documents\Cours\Master\MA2\Gaz Dissous\Code\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{681C72AC-3992-48E5-AF04-10B732EB0F67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41B65C20-367F-41F4-B4D6-E8EF766D462B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -639,7 +639,7 @@
   <dimension ref="A1:L52"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="V52" sqref="V52"/>
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/Data/Metadata_final.xlsx
+++ b/Data/Metadata_final.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lolap\OneDrive\Documents\Cours\Master\MA2\Gaz Dissous\Code\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41B65C20-367F-41F4-B4D6-E8EF766D462B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E715A93-18D6-4450-B798-3A10F6C4F3BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -639,7 +639,7 @@
   <dimension ref="A1:L52"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+      <selection activeCell="R23" sqref="R23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/Data/Metadata_final.xlsx
+++ b/Data/Metadata_final.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lolap\OneDrive\Documents\Cours\Master\MA2\Gaz Dissous\Code\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E715A93-18D6-4450-B798-3A10F6C4F3BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DDEEBB8-7090-45A3-BBBB-8B28516E341E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -638,8 +638,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L52"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R23" sqref="R23"/>
+    <sheetView tabSelected="1" topLeftCell="C13" zoomScale="85" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M25" sqref="M25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/Data/Metadata_final.xlsx
+++ b/Data/Metadata_final.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lolap\OneDrive\Documents\Cours\Master\MA2\Gaz Dissous\Code\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DDEEBB8-7090-45A3-BBBB-8B28516E341E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{104AE478-E45C-4CF9-AD4E-6155C9F04F9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="80">
   <si>
     <t>Sample_Name</t>
   </si>
@@ -95,9 +95,6 @@
     <t>SLWT_2024_01_28_A</t>
   </si>
   <si>
-    <t>SLWT_2024_01_28_B</t>
-  </si>
-  <si>
     <t>SLWT_2024_01_29_A</t>
   </si>
   <si>
@@ -131,9 +128,6 @@
     <t>SLWT_2024_06_23_B</t>
   </si>
   <si>
-    <t>SLWT_2024_06_24_A</t>
-  </si>
-  <si>
     <t>SLWT_2024_06_24_B</t>
   </si>
   <si>
@@ -227,9 +221,6 @@
     <t>5-10</t>
   </si>
   <si>
-    <t>Doubt if still under vacuum</t>
-  </si>
-  <si>
     <t xml:space="preserve">Doubt if still under vacuum </t>
   </si>
   <si>
@@ -282,6 +273,9 @@
   </si>
   <si>
     <t>Air pressure from NOAA archives,  Approximation of wind speed from Beaufort</t>
+  </si>
+  <si>
+    <t>7</t>
   </si>
 </sst>
 </file>
@@ -636,10 +630,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L52"/>
+  <dimension ref="A1:L50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C13" zoomScale="85" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M25" sqref="M25"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -661,37 +655,37 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D1" s="3" t="s">
+      <c r="H1" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="I1" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="H1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="I1" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>58</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.35">
@@ -704,8 +698,8 @@
       <c r="C2" s="2">
         <v>-25.324999999999999</v>
       </c>
-      <c r="D2" s="3">
-        <v>7</v>
+      <c r="D2" s="4" t="s">
+        <v>79</v>
       </c>
       <c r="E2" s="3">
         <v>4.5</v>
@@ -729,7 +723,7 @@
         <v>3</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.35">
@@ -742,8 +736,8 @@
       <c r="C3" s="2">
         <v>-25.324999999999999</v>
       </c>
-      <c r="D3" s="3">
-        <v>7</v>
+      <c r="D3" s="4" t="s">
+        <v>79</v>
       </c>
       <c r="E3" s="3">
         <v>4.5</v>
@@ -767,7 +761,7 @@
         <v>3</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.35">
@@ -802,7 +796,7 @@
         <v>25.4</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.35">
@@ -837,7 +831,7 @@
         <v>25.2</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.35">
@@ -872,7 +866,7 @@
         <v>25.3</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.35">
@@ -907,7 +901,7 @@
         <v>24.7</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.35">
@@ -942,7 +936,7 @@
         <v>29.4</v>
       </c>
       <c r="K8" s="4" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.35">
@@ -977,7 +971,7 @@
         <v>28</v>
       </c>
       <c r="K9" s="4" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.35">
@@ -1012,7 +1006,7 @@
         <v>27.8</v>
       </c>
       <c r="K10" s="4" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.35">
@@ -1047,10 +1041,10 @@
         <v>28</v>
       </c>
       <c r="K11" s="4" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.35">
@@ -1085,7 +1079,7 @@
         <v>26.8</v>
       </c>
       <c r="K12" s="4" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.35">
@@ -1120,7 +1114,7 @@
         <v>27</v>
       </c>
       <c r="K13" s="4" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.35">
@@ -1155,7 +1149,7 @@
         <v>27.4</v>
       </c>
       <c r="K14" s="4" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.35">
@@ -1190,7 +1184,7 @@
         <v>27.4</v>
       </c>
       <c r="K15" s="4" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.35">
@@ -1225,10 +1219,10 @@
         <v>27.4</v>
       </c>
       <c r="K16" s="4" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.35">
@@ -1263,7 +1257,7 @@
         <v>28.1</v>
       </c>
       <c r="K17" s="4" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.35">
@@ -1298,7 +1292,7 @@
         <v>27.8</v>
       </c>
       <c r="K18" s="4" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.35">
@@ -1333,7 +1327,7 @@
         <v>26.9</v>
       </c>
       <c r="K19" s="4" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.35">
@@ -1341,34 +1335,34 @@
         <v>19</v>
       </c>
       <c r="B20" s="2">
-        <v>13.406666666666666</v>
+        <v>13.673333333333334</v>
       </c>
       <c r="C20" s="2">
-        <v>-47.76166666666667</v>
+        <v>-50.601666666666667</v>
       </c>
       <c r="D20" s="3">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E20" s="3">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="F20" s="3">
-        <v>1013.8</v>
+        <v>1012.2</v>
       </c>
       <c r="G20" s="3">
+        <v>28</v>
+      </c>
+      <c r="H20" s="3">
+        <v>7.6</v>
+      </c>
+      <c r="I20" s="3">
+        <v>27.5</v>
+      </c>
+      <c r="J20" s="3">
         <v>27.8</v>
       </c>
-      <c r="H20" s="3">
-        <v>7.5</v>
-      </c>
-      <c r="I20" s="3">
-        <v>27.8</v>
-      </c>
-      <c r="J20" s="3">
-        <v>27.7</v>
-      </c>
       <c r="K20" s="4" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.35">
@@ -1396,14 +1390,14 @@
       <c r="H21" s="3">
         <v>7.6</v>
       </c>
-      <c r="I21" s="3">
+      <c r="I21" s="5">
         <v>27.5</v>
       </c>
-      <c r="J21" s="3">
+      <c r="J21" s="5">
         <v>27.8</v>
       </c>
-      <c r="K21" s="4" t="s">
-        <v>73</v>
+      <c r="K21" s="6" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.35">
@@ -1431,14 +1425,14 @@
       <c r="H22" s="3">
         <v>7.6</v>
       </c>
-      <c r="I22" s="5">
+      <c r="I22" s="3">
+        <v>26.8</v>
+      </c>
+      <c r="J22" s="3">
         <v>27.5</v>
       </c>
-      <c r="J22" s="5">
-        <v>27.8</v>
-      </c>
-      <c r="K22" s="6" t="s">
-        <v>73</v>
+      <c r="K22" s="4" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.35">
@@ -1446,34 +1440,37 @@
         <v>22</v>
       </c>
       <c r="B23" s="2">
-        <v>13.673333333333334</v>
+        <v>14.085000000000001</v>
       </c>
       <c r="C23" s="2">
-        <v>-50.601666666666667</v>
+        <v>-53.543333333333337</v>
       </c>
       <c r="D23" s="3">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E23" s="3">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F23" s="3">
-        <v>1012.2</v>
+        <v>1013.1</v>
       </c>
       <c r="G23" s="3">
-        <v>28</v>
+        <v>28.4</v>
       </c>
       <c r="H23" s="3">
         <v>7.6</v>
       </c>
       <c r="I23" s="3">
-        <v>26.8</v>
+        <v>27.8</v>
       </c>
       <c r="J23" s="3">
-        <v>27.5</v>
+        <v>28.5</v>
       </c>
       <c r="K23" s="4" t="s">
-        <v>73</v>
+        <v>70</v>
+      </c>
+      <c r="L23" s="1" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.35">
@@ -1481,25 +1478,25 @@
         <v>23</v>
       </c>
       <c r="B24" s="2">
-        <v>14.085000000000001</v>
+        <v>14.54</v>
       </c>
       <c r="C24" s="2">
-        <v>-53.543333333333337</v>
-      </c>
-      <c r="D24" s="3">
-        <v>12</v>
+        <v>-56.048333333333332</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>75</v>
       </c>
       <c r="E24" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F24" s="3">
-        <v>1013.1</v>
+        <v>1011.3</v>
       </c>
       <c r="G24" s="3">
-        <v>28.4</v>
+        <v>28.7</v>
       </c>
       <c r="H24" s="3">
-        <v>7.6</v>
+        <v>7.5</v>
       </c>
       <c r="I24" s="3">
         <v>27.8</v>
@@ -1508,10 +1505,10 @@
         <v>28.5</v>
       </c>
       <c r="K24" s="4" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.35">
@@ -1525,7 +1522,7 @@
         <v>-56.048333333333332</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E25" s="3">
         <v>5</v>
@@ -1540,16 +1537,16 @@
         <v>7.5</v>
       </c>
       <c r="I25" s="3">
-        <v>27.8</v>
+        <v>27.6</v>
       </c>
       <c r="J25" s="3">
-        <v>28.5</v>
+        <v>28.2</v>
       </c>
       <c r="K25" s="4" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.35">
@@ -1557,22 +1554,22 @@
         <v>25</v>
       </c>
       <c r="B26" s="2">
-        <v>14.54</v>
+        <v>14.365</v>
       </c>
       <c r="C26" s="2">
-        <v>-56.048333333333332</v>
+        <v>-58.271666666666668</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E26" s="3">
-        <v>5</v>
+        <v>6.4</v>
       </c>
       <c r="F26" s="3">
-        <v>1011.3</v>
+        <v>1009.3</v>
       </c>
       <c r="G26" s="3">
-        <v>28.7</v>
+        <v>29.2</v>
       </c>
       <c r="H26" s="3">
         <v>7.5</v>
@@ -1581,13 +1578,13 @@
         <v>27.6</v>
       </c>
       <c r="J26" s="3">
-        <v>28.2</v>
+        <v>28.4</v>
       </c>
       <c r="K26" s="4" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="L26" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.35">
@@ -1595,37 +1592,37 @@
         <v>26</v>
       </c>
       <c r="B27" s="2">
-        <v>14.365</v>
+        <v>14.37</v>
       </c>
       <c r="C27" s="2">
-        <v>-58.271666666666668</v>
+        <v>-60.55833333333333</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E27" s="3">
-        <v>6.4</v>
+        <v>5</v>
       </c>
       <c r="F27" s="3">
-        <v>1009.3</v>
+        <v>1012</v>
       </c>
       <c r="G27" s="3">
-        <v>29.2</v>
+        <v>29</v>
       </c>
       <c r="H27" s="3">
         <v>7.5</v>
       </c>
       <c r="I27" s="3">
-        <v>27.6</v>
+        <v>28</v>
       </c>
       <c r="J27" s="3">
-        <v>28.4</v>
+        <v>28.8</v>
       </c>
       <c r="K27" s="4" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="L27" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.35">
@@ -1639,7 +1636,7 @@
         <v>-60.55833333333333</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E28" s="3">
         <v>5</v>
@@ -1654,16 +1651,16 @@
         <v>7.5</v>
       </c>
       <c r="I28" s="3">
-        <v>28</v>
+        <v>27.7</v>
       </c>
       <c r="J28" s="3">
         <v>28.8</v>
       </c>
       <c r="K28" s="4" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="L28" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.35">
@@ -1671,38 +1668,36 @@
         <v>28</v>
       </c>
       <c r="B29" s="2">
-        <v>14.37</v>
+        <v>55.707833333333333</v>
       </c>
       <c r="C29" s="2">
-        <v>-60.55833333333333</v>
-      </c>
-      <c r="D29" s="4" t="s">
-        <v>78</v>
+        <v>-56.344000000000001</v>
+      </c>
+      <c r="D29" s="3">
+        <v>8</v>
       </c>
       <c r="E29" s="3">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="F29" s="3">
-        <v>1012</v>
+        <v>1004</v>
       </c>
       <c r="G29" s="3">
-        <v>29</v>
+        <v>8.6</v>
       </c>
       <c r="H29" s="3">
-        <v>7.5</v>
+        <v>7.3</v>
       </c>
       <c r="I29" s="3">
-        <v>27.7</v>
+        <v>5.5</v>
       </c>
       <c r="J29" s="3">
-        <v>28.8</v>
+        <v>7.6</v>
       </c>
       <c r="K29" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="L29" s="1" t="s">
-        <v>81</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="L29" s="3"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
@@ -1730,49 +1725,48 @@
         <v>7.3</v>
       </c>
       <c r="I30" s="3">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="J30" s="3">
         <v>7.6</v>
       </c>
       <c r="K30" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="L30" s="3"/>
+        <v>71</v>
+      </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>30</v>
       </c>
       <c r="B31" s="2">
-        <v>55.707833333333333</v>
+        <v>57.179166666666667</v>
       </c>
       <c r="C31" s="2">
-        <v>-56.344000000000001</v>
-      </c>
-      <c r="D31" s="3">
-        <v>8</v>
+        <v>-55.78</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>60</v>
       </c>
       <c r="E31" s="3">
-        <v>4.5</v>
+        <v>3.3</v>
       </c>
       <c r="F31" s="3">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="G31" s="3">
-        <v>8.6</v>
+        <v>7.9</v>
       </c>
       <c r="H31" s="3">
+        <v>7.5</v>
+      </c>
+      <c r="I31" s="3">
         <v>7.3</v>
       </c>
-      <c r="I31" s="3">
-        <v>5.4</v>
-      </c>
       <c r="J31" s="3">
-        <v>7.6</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="K31" s="4" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.35">
@@ -1780,37 +1774,34 @@
         <v>31</v>
       </c>
       <c r="B32" s="2">
-        <v>57.179166666666667</v>
+        <v>58.394333333333336</v>
       </c>
       <c r="C32" s="2">
-        <v>-55.78</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>62</v>
+        <v>-54.673833333333334</v>
+      </c>
+      <c r="D32" s="3">
+        <v>5</v>
       </c>
       <c r="E32" s="3">
-        <v>3.3</v>
+        <v>1</v>
       </c>
       <c r="F32" s="3">
-        <v>1003</v>
+        <v>1006</v>
       </c>
       <c r="G32" s="3">
-        <v>7.9</v>
+        <v>9.6</v>
       </c>
       <c r="H32" s="3">
-        <v>7.5</v>
+        <v>7.3</v>
       </c>
       <c r="I32" s="3">
-        <v>7.2</v>
+        <v>7.6</v>
       </c>
       <c r="J32" s="3">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="K32" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="L32" s="1" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.35">
@@ -1818,34 +1809,34 @@
         <v>32</v>
       </c>
       <c r="B33" s="2">
-        <v>57.179166666666667</v>
+        <v>58.394333333333336</v>
       </c>
       <c r="C33" s="2">
-        <v>-55.78</v>
-      </c>
-      <c r="D33" s="4" t="s">
-        <v>62</v>
+        <v>-54.673833333333334</v>
+      </c>
+      <c r="D33" s="3">
+        <v>5</v>
       </c>
       <c r="E33" s="3">
-        <v>3.3</v>
+        <v>1</v>
       </c>
       <c r="F33" s="3">
-        <v>1003</v>
+        <v>1006</v>
       </c>
       <c r="G33" s="3">
-        <v>7.9</v>
+        <v>9.6</v>
       </c>
       <c r="H33" s="3">
-        <v>7.5</v>
+        <v>7.3</v>
       </c>
       <c r="I33" s="3">
-        <v>7.3</v>
+        <v>7.8</v>
       </c>
       <c r="J33" s="3">
-        <v>8.1999999999999993</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="K33" s="4" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.35">
@@ -1853,34 +1844,34 @@
         <v>33</v>
       </c>
       <c r="B34" s="2">
-        <v>58.394333333333336</v>
+        <v>60.506999999999998</v>
       </c>
       <c r="C34" s="2">
-        <v>-54.673833333333334</v>
-      </c>
-      <c r="D34" s="3">
-        <v>5</v>
+        <v>-54.106333333333332</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>62</v>
       </c>
       <c r="E34" s="3">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F34" s="3">
-        <v>1006</v>
+        <v>991</v>
       </c>
       <c r="G34" s="3">
-        <v>9.6</v>
+        <v>7</v>
       </c>
       <c r="H34" s="3">
-        <v>7.3</v>
+        <v>7.5</v>
       </c>
       <c r="I34" s="3">
-        <v>7.6</v>
+        <v>6.1</v>
       </c>
       <c r="J34" s="3">
-        <v>8.6</v>
+        <v>7.7</v>
       </c>
       <c r="K34" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.35">
@@ -1888,34 +1879,34 @@
         <v>34</v>
       </c>
       <c r="B35" s="2">
-        <v>58.394333333333336</v>
+        <v>60.506999999999998</v>
       </c>
       <c r="C35" s="2">
-        <v>-54.673833333333334</v>
-      </c>
-      <c r="D35" s="3">
-        <v>5</v>
+        <v>-54.106333333333332</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>62</v>
       </c>
       <c r="E35" s="3">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F35" s="3">
-        <v>1006</v>
+        <v>991</v>
       </c>
       <c r="G35" s="3">
-        <v>9.6</v>
+        <v>7</v>
       </c>
       <c r="H35" s="3">
+        <v>7.5</v>
+      </c>
+      <c r="I35" s="3">
+        <v>6.2</v>
+      </c>
+      <c r="J35" s="3">
         <v>7.3</v>
       </c>
-      <c r="I35" s="3">
-        <v>7.8</v>
-      </c>
-      <c r="J35" s="3">
-        <v>8.6999999999999993</v>
-      </c>
       <c r="K35" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.35">
@@ -1923,34 +1914,37 @@
         <v>35</v>
       </c>
       <c r="B36" s="2">
-        <v>60.506999999999998</v>
+        <v>62.570833333333333</v>
       </c>
       <c r="C36" s="2">
-        <v>-54.106333333333332</v>
-      </c>
-      <c r="D36" s="3" t="s">
+        <v>-51.825333333333333</v>
+      </c>
+      <c r="D36" s="3">
+        <v>15</v>
+      </c>
+      <c r="E36" s="3">
+        <v>5.5</v>
+      </c>
+      <c r="F36" s="3">
+        <v>1008</v>
+      </c>
+      <c r="G36" s="3">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="H36" s="3">
+        <v>7.2</v>
+      </c>
+      <c r="I36" s="3">
+        <v>2</v>
+      </c>
+      <c r="J36" s="3">
+        <v>3.3</v>
+      </c>
+      <c r="K36" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="E36" s="3">
-        <v>7</v>
-      </c>
-      <c r="F36" s="3">
-        <v>991</v>
-      </c>
-      <c r="G36" s="3">
-        <v>7</v>
-      </c>
-      <c r="H36" s="3">
-        <v>7.5</v>
-      </c>
-      <c r="I36" s="3">
-        <v>6.1</v>
-      </c>
-      <c r="J36" s="3">
-        <v>7.7</v>
-      </c>
-      <c r="K36" s="4" t="s">
-        <v>75</v>
+      <c r="L36" s="1" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.35">
@@ -1958,34 +1952,34 @@
         <v>36</v>
       </c>
       <c r="B37" s="2">
-        <v>60.506999999999998</v>
+        <v>62.570833333333333</v>
       </c>
       <c r="C37" s="2">
-        <v>-54.106333333333332</v>
-      </c>
-      <c r="D37" s="3" t="s">
+        <v>-51.825333333333333</v>
+      </c>
+      <c r="D37" s="3">
+        <v>15</v>
+      </c>
+      <c r="E37" s="3">
+        <v>5.5</v>
+      </c>
+      <c r="F37" s="3">
+        <v>1008</v>
+      </c>
+      <c r="G37" s="3">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="H37" s="3">
+        <v>7.2</v>
+      </c>
+      <c r="I37" s="3">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="J37" s="3">
+        <v>3.2</v>
+      </c>
+      <c r="K37" s="4" t="s">
         <v>65</v>
-      </c>
-      <c r="E37" s="3">
-        <v>7</v>
-      </c>
-      <c r="F37" s="3">
-        <v>991</v>
-      </c>
-      <c r="G37" s="3">
-        <v>7</v>
-      </c>
-      <c r="H37" s="3">
-        <v>7.5</v>
-      </c>
-      <c r="I37" s="3">
-        <v>6.2</v>
-      </c>
-      <c r="J37" s="3">
-        <v>7.3</v>
-      </c>
-      <c r="K37" s="4" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.35">
@@ -1993,37 +1987,34 @@
         <v>37</v>
       </c>
       <c r="B38" s="2">
-        <v>62.570833333333333</v>
+        <v>69.007166666666663</v>
       </c>
       <c r="C38" s="2">
-        <v>-51.825333333333333</v>
+        <v>-52.084333333333333</v>
       </c>
       <c r="D38" s="3">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="E38" s="3">
-        <v>5.5</v>
+        <v>4.2</v>
       </c>
       <c r="F38" s="3">
-        <v>1008</v>
+        <v>1015</v>
       </c>
       <c r="G38" s="3">
-        <v>4.9000000000000004</v>
+        <v>11.8</v>
       </c>
       <c r="H38" s="3">
         <v>7.2</v>
       </c>
       <c r="I38" s="3">
-        <v>2</v>
+        <v>10.1</v>
       </c>
       <c r="J38" s="3">
-        <v>3.3</v>
+        <v>10.7</v>
       </c>
       <c r="K38" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="L38" s="1" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.35">
@@ -2031,34 +2022,34 @@
         <v>38</v>
       </c>
       <c r="B39" s="2">
-        <v>62.570833333333333</v>
+        <v>69.007166666666663</v>
       </c>
       <c r="C39" s="2">
-        <v>-51.825333333333333</v>
+        <v>-52.084333333333333</v>
       </c>
       <c r="D39" s="3">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="E39" s="3">
-        <v>5.5</v>
+        <v>4.2</v>
       </c>
       <c r="F39" s="3">
-        <v>1008</v>
+        <v>1015</v>
       </c>
       <c r="G39" s="3">
-        <v>4.9000000000000004</v>
+        <v>11.8</v>
       </c>
       <c r="H39" s="3">
         <v>7.2</v>
       </c>
       <c r="I39" s="3">
-        <v>2.2000000000000002</v>
+        <v>10.4</v>
       </c>
       <c r="J39" s="3">
-        <v>3.2</v>
+        <v>10.9</v>
       </c>
       <c r="K39" s="4" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.35">
@@ -2066,34 +2057,34 @@
         <v>39</v>
       </c>
       <c r="B40" s="2">
-        <v>69.007166666666663</v>
+        <v>68.44083333333333</v>
       </c>
       <c r="C40" s="2">
-        <v>-52.084333333333333</v>
+        <v>-53.853833333333334</v>
       </c>
       <c r="D40" s="3">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E40" s="3">
-        <v>4.2</v>
+        <v>5.5</v>
       </c>
       <c r="F40" s="3">
-        <v>1015</v>
+        <v>1017</v>
       </c>
       <c r="G40" s="3">
-        <v>11.8</v>
+        <v>10.3</v>
       </c>
       <c r="H40" s="3">
         <v>7.2</v>
       </c>
       <c r="I40" s="3">
-        <v>10.1</v>
+        <v>7.7</v>
       </c>
       <c r="J40" s="3">
-        <v>10.7</v>
+        <v>11</v>
       </c>
       <c r="K40" s="4" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.35">
@@ -2101,34 +2092,34 @@
         <v>40</v>
       </c>
       <c r="B41" s="2">
-        <v>69.007166666666663</v>
+        <v>67.073666666666668</v>
       </c>
       <c r="C41" s="2">
-        <v>-52.084333333333333</v>
+        <v>-54.288833333333336</v>
       </c>
       <c r="D41" s="3">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E41" s="3">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="F41" s="3">
-        <v>1015</v>
+        <v>1011</v>
       </c>
       <c r="G41" s="3">
-        <v>11.8</v>
+        <v>7.4</v>
       </c>
       <c r="H41" s="3">
         <v>7.2</v>
       </c>
       <c r="I41" s="3">
-        <v>10.4</v>
+        <v>5.4</v>
       </c>
       <c r="J41" s="3">
-        <v>10.9</v>
+        <v>7.2</v>
       </c>
       <c r="K41" s="4" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.35">
@@ -2136,34 +2127,34 @@
         <v>41</v>
       </c>
       <c r="B42" s="2">
-        <v>68.44083333333333</v>
+        <v>67.073666666666668</v>
       </c>
       <c r="C42" s="2">
-        <v>-53.853833333333334</v>
+        <v>-54.288833333333336</v>
       </c>
       <c r="D42" s="3">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="E42" s="3">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="F42" s="3">
-        <v>1017</v>
+        <v>1011</v>
       </c>
       <c r="G42" s="3">
-        <v>10.3</v>
+        <v>7.4</v>
       </c>
       <c r="H42" s="3">
         <v>7.2</v>
       </c>
       <c r="I42" s="3">
-        <v>7.7</v>
+        <v>5.6</v>
       </c>
       <c r="J42" s="3">
-        <v>11</v>
+        <v>7.2</v>
       </c>
       <c r="K42" s="4" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.35">
@@ -2171,34 +2162,34 @@
         <v>42</v>
       </c>
       <c r="B43" s="2">
-        <v>67.073666666666668</v>
+        <v>65.871499999999997</v>
       </c>
       <c r="C43" s="2">
-        <v>-54.288833333333336</v>
+        <v>-53.627833333333335</v>
       </c>
       <c r="D43" s="3">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="E43" s="3">
-        <v>4.5</v>
+        <v>5.4</v>
       </c>
       <c r="F43" s="3">
-        <v>1011</v>
+        <v>1008</v>
       </c>
       <c r="G43" s="3">
-        <v>7.4</v>
+        <v>10.1</v>
       </c>
       <c r="H43" s="3">
         <v>7.2</v>
       </c>
       <c r="I43" s="3">
-        <v>5.4</v>
+        <v>6.7</v>
       </c>
       <c r="J43" s="3">
-        <v>7.2</v>
+        <v>8.1</v>
       </c>
       <c r="K43" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.35">
@@ -2206,34 +2197,34 @@
         <v>43</v>
       </c>
       <c r="B44" s="2">
-        <v>67.073666666666668</v>
+        <v>65.871499999999997</v>
       </c>
       <c r="C44" s="2">
-        <v>-54.288833333333336</v>
+        <v>-53.627833333333335</v>
       </c>
       <c r="D44" s="3">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="E44" s="3">
-        <v>4.5</v>
+        <v>5.4</v>
       </c>
       <c r="F44" s="3">
-        <v>1011</v>
+        <v>1008</v>
       </c>
       <c r="G44" s="3">
-        <v>7.4</v>
+        <v>10.1</v>
       </c>
       <c r="H44" s="3">
         <v>7.2</v>
       </c>
       <c r="I44" s="3">
-        <v>5.6</v>
+        <v>7</v>
       </c>
       <c r="J44" s="3">
-        <v>7.2</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="K44" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.35">
@@ -2241,31 +2232,31 @@
         <v>44</v>
       </c>
       <c r="B45" s="2">
-        <v>65.871499999999997</v>
+        <v>63.871166666666667</v>
       </c>
       <c r="C45" s="2">
-        <v>-53.627833333333335</v>
+        <v>-52.19233333333333</v>
       </c>
       <c r="D45" s="3">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="E45" s="3">
-        <v>5.4</v>
+        <v>3.8</v>
       </c>
       <c r="F45" s="3">
-        <v>1008</v>
+        <v>1001</v>
       </c>
       <c r="G45" s="3">
-        <v>10.1</v>
-      </c>
-      <c r="H45" s="3">
-        <v>7.2</v>
+        <v>4.5</v>
+      </c>
+      <c r="H45" s="3" t="s">
+        <v>64</v>
       </c>
       <c r="I45" s="3">
-        <v>6.7</v>
+        <v>2.5</v>
       </c>
       <c r="J45" s="3">
-        <v>8.1</v>
+        <v>3.6</v>
       </c>
       <c r="K45" s="4" t="s">
         <v>74</v>
@@ -2276,34 +2267,37 @@
         <v>45</v>
       </c>
       <c r="B46" s="2">
-        <v>65.871499999999997</v>
+        <v>62.253666666666668</v>
       </c>
       <c r="C46" s="2">
-        <v>-53.627833333333335</v>
+        <v>-50.424166666666665</v>
       </c>
       <c r="D46" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E46" s="3">
-        <v>5.4</v>
+        <v>6</v>
       </c>
       <c r="F46" s="3">
-        <v>1008</v>
+        <v>1012</v>
       </c>
       <c r="G46" s="3">
-        <v>10.1</v>
-      </c>
-      <c r="H46" s="3">
-        <v>7.2</v>
+        <v>8.5</v>
+      </c>
+      <c r="H46" s="3" t="s">
+        <v>64</v>
       </c>
       <c r="I46" s="3">
-        <v>7</v>
+        <v>4.5</v>
       </c>
       <c r="J46" s="3">
-        <v>8.6999999999999993</v>
+        <v>6.1</v>
       </c>
       <c r="K46" s="4" t="s">
-        <v>74</v>
+        <v>71</v>
+      </c>
+      <c r="L46" s="1" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.35">
@@ -2311,34 +2305,37 @@
         <v>46</v>
       </c>
       <c r="B47" s="2">
-        <v>63.871166666666667</v>
+        <v>62.253666666666668</v>
       </c>
       <c r="C47" s="2">
-        <v>-52.19233333333333</v>
+        <v>-50.424166666666665</v>
       </c>
       <c r="D47" s="3">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E47" s="3">
-        <v>3.8</v>
+        <v>6</v>
       </c>
       <c r="F47" s="3">
-        <v>1001</v>
+        <v>1012</v>
       </c>
       <c r="G47" s="3">
+        <v>8.5</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="I47" s="3">
         <v>4.5</v>
       </c>
-      <c r="H47" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="I47" s="3">
-        <v>2.5</v>
-      </c>
       <c r="J47" s="3">
-        <v>3.6</v>
+        <v>6.1</v>
       </c>
       <c r="K47" s="4" t="s">
-        <v>77</v>
+        <v>71</v>
+      </c>
+      <c r="L47" s="1" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.35">
@@ -2346,37 +2343,37 @@
         <v>47</v>
       </c>
       <c r="B48" s="2">
-        <v>62.253666666666668</v>
+        <v>61.009833333333333</v>
       </c>
       <c r="C48" s="2">
-        <v>-50.424166666666665</v>
-      </c>
-      <c r="D48" s="3">
-        <v>5</v>
+        <v>-49.375</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>65</v>
       </c>
       <c r="E48" s="3">
-        <v>6</v>
+        <v>1.3</v>
       </c>
       <c r="F48" s="3">
-        <v>1012</v>
+        <v>1008</v>
       </c>
       <c r="G48" s="3">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="H48" s="3" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="I48" s="3">
-        <v>4.5</v>
+        <v>4.3</v>
       </c>
       <c r="J48" s="3">
-        <v>6.1</v>
+        <v>6.9</v>
       </c>
       <c r="K48" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L48" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.35">
@@ -2384,37 +2381,37 @@
         <v>48</v>
       </c>
       <c r="B49" s="2">
-        <v>62.253666666666668</v>
+        <v>60.335666666666668</v>
       </c>
       <c r="C49" s="2">
-        <v>-50.424166666666665</v>
+        <v>-46.654833333333336</v>
       </c>
       <c r="D49" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E49" s="3">
         <v>6</v>
       </c>
       <c r="F49" s="3">
-        <v>1012</v>
+        <v>1009</v>
       </c>
       <c r="G49" s="3">
-        <v>8.5</v>
+        <v>9.9</v>
       </c>
       <c r="H49" s="3" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="I49" s="3">
-        <v>4.5</v>
+        <v>3.2</v>
       </c>
       <c r="J49" s="3">
-        <v>6.1</v>
+        <v>5.5</v>
       </c>
       <c r="K49" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L49" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.35">
@@ -2422,113 +2419,37 @@
         <v>49</v>
       </c>
       <c r="B50" s="2">
-        <v>61.009833333333333</v>
+        <v>60.335666666666668</v>
       </c>
       <c r="C50" s="2">
-        <v>-49.375</v>
-      </c>
-      <c r="D50" s="4" t="s">
-        <v>68</v>
+        <v>-46.654833333333336</v>
+      </c>
+      <c r="D50" s="3">
+        <v>1</v>
       </c>
       <c r="E50" s="3">
-        <v>1.3</v>
+        <v>6</v>
       </c>
       <c r="F50" s="3">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="G50" s="3">
-        <v>7.5</v>
+        <v>9.9</v>
       </c>
       <c r="H50" s="3" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="I50" s="3">
-        <v>4.3</v>
+        <v>3.6</v>
       </c>
       <c r="J50" s="3">
-        <v>6.9</v>
+        <v>6.4</v>
       </c>
       <c r="K50" s="4" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="L50" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A51" t="s">
-        <v>50</v>
-      </c>
-      <c r="B51" s="2">
-        <v>60.335666666666668</v>
-      </c>
-      <c r="C51" s="2">
-        <v>-46.654833333333336</v>
-      </c>
-      <c r="D51" s="3">
-        <v>1</v>
-      </c>
-      <c r="E51" s="3">
-        <v>6</v>
-      </c>
-      <c r="F51" s="3">
-        <v>1009</v>
-      </c>
-      <c r="G51" s="3">
-        <v>9.9</v>
-      </c>
-      <c r="H51" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="I51" s="3">
-        <v>3.2</v>
-      </c>
-      <c r="J51" s="3">
-        <v>5.5</v>
-      </c>
-      <c r="K51" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="L51" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A52" t="s">
-        <v>51</v>
-      </c>
-      <c r="B52" s="2">
-        <v>60.335666666666668</v>
-      </c>
-      <c r="C52" s="2">
-        <v>-46.654833333333336</v>
-      </c>
-      <c r="D52" s="3">
-        <v>1</v>
-      </c>
-      <c r="E52" s="3">
-        <v>6</v>
-      </c>
-      <c r="F52" s="3">
-        <v>1009</v>
-      </c>
-      <c r="G52" s="3">
-        <v>9.9</v>
-      </c>
-      <c r="H52" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="I52" s="3">
-        <v>3.6</v>
-      </c>
-      <c r="J52" s="3">
-        <v>6.4</v>
-      </c>
-      <c r="K52" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="L52" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Metadata_final.xlsx
+++ b/Data/Metadata_final.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lolap\OneDrive\Documents\Cours\Master\MA2\Gaz Dissous\Code\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{104AE478-E45C-4CF9-AD4E-6155C9F04F9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B57A7012-09AE-4CAD-8485-C1B7BE054B51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -633,7 +633,7 @@
   <dimension ref="A1:L50"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
